--- a/game_excel/mainactive.xlsx
+++ b/game_excel/mainactive.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="171">
   <si>
     <t>int</t>
   </si>
@@ -512,30 +512,6 @@
     <t>背景图</t>
   </si>
   <si>
-    <t>maps/Map_battle_2013</t>
-  </si>
-  <si>
-    <t>maps/Map_battle_2003</t>
-  </si>
-  <si>
-    <t>maps/Map_battle_2001</t>
-  </si>
-  <si>
-    <t>maps/Map_battle_2008</t>
-  </si>
-  <si>
-    <t>maps/Map_battle_2017</t>
-  </si>
-  <si>
-    <t>maps/Map_battle_2006</t>
-  </si>
-  <si>
-    <t>maps/Map_battle_2015</t>
-  </si>
-  <si>
-    <t>maps/Map_battle_2004</t>
-  </si>
-  <si>
     <t>周特惠11（新奖励）</t>
   </si>
   <si>
@@ -680,13 +656,49 @@
   </si>
   <si>
     <t>welfare/Map_Battle_2003_ttd</t>
+  </si>
+  <si>
+    <t>Map_battle_2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_battle_2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_battle_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_battle_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_battle_2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_battle_2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_battle_2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_battle_2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_battle_2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,7 +826,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -888,6 +900,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -922,6 +935,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1097,15 +1111,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
@@ -1121,7 +1135,7 @@
     <col min="12" max="12" width="17.25" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1159,7 +1173,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1208,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="22.5">
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1278,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="170.25" customHeight="1">
+    <row r="5" spans="1:12" ht="170.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1281,7 +1295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -1310,13 +1324,13 @@
         <v>44</v>
       </c>
       <c r="K6" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -1345,13 +1359,13 @@
         <v>115</v>
       </c>
       <c r="K7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -1371,22 +1385,22 @@
         <v>5007502</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>115</v>
       </c>
       <c r="K8" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1415,13 +1429,13 @@
         <v>35</v>
       </c>
       <c r="K9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -1450,13 +1464,13 @@
         <v>35</v>
       </c>
       <c r="K10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -1485,13 +1499,13 @@
         <v>35</v>
       </c>
       <c r="K11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -1520,13 +1534,13 @@
         <v>35</v>
       </c>
       <c r="K12" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>89</v>
       </c>
@@ -1555,13 +1569,13 @@
         <v>76</v>
       </c>
       <c r="K13" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>90</v>
       </c>
@@ -1590,13 +1604,13 @@
         <v>76</v>
       </c>
       <c r="K14" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1625,13 +1639,13 @@
         <v>76</v>
       </c>
       <c r="K15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1660,13 +1674,13 @@
         <v>76</v>
       </c>
       <c r="K16" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1695,13 +1709,13 @@
         <v>76</v>
       </c>
       <c r="K17" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
@@ -1730,15 +1744,15 @@
         <v>76</v>
       </c>
       <c r="K18" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L18" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B19" s="2">
         <v>200011</v>
@@ -1756,7 +1770,7 @@
         <v>5007502</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>88</v>
@@ -1765,15 +1779,15 @@
         <v>76</v>
       </c>
       <c r="K19" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="B20" s="2">
         <v>200012</v>
@@ -1791,24 +1805,24 @@
         <v>5007502</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K20" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2">
         <v>200013</v>
@@ -1826,24 +1840,24 @@
         <v>5007502</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K21" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L21" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2">
         <v>200014</v>
@@ -1861,24 +1875,24 @@
         <v>5007502</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K22" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L22" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2">
         <v>200015</v>
@@ -1896,24 +1910,24 @@
         <v>5007502</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K23" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L23" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L23" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B24" s="2">
         <v>200016</v>
@@ -1931,22 +1945,22 @@
         <v>5007502</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K24" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -1976,13 +1990,13 @@
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="L25" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -2012,13 +2026,13 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -2050,13 +2064,13 @@
         <v>1111</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>100</v>
       </c>
@@ -2088,15 +2102,15 @@
         <v>1111</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B29" s="2">
         <v>500003</v>
@@ -2114,25 +2128,25 @@
         <v>5007508</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="J29" s="11">
         <v>1111</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>95</v>
       </c>
@@ -2164,13 +2178,13 @@
         <v>1112</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>96</v>
       </c>
@@ -2202,15 +2216,15 @@
         <v>1112</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B32" s="2">
         <v>600003</v>
@@ -2228,10 +2242,10 @@
         <v>5007518</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>112</v>
@@ -2240,13 +2254,13 @@
         <v>1112</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -2278,13 +2292,13 @@
         <v>1113</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>97</v>
       </c>
@@ -2316,15 +2330,15 @@
         <v>1113</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B35" s="2">
         <v>700003</v>
@@ -2342,10 +2356,10 @@
         <v>5007510</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>72</v>
@@ -2354,13 +2368,13 @@
         <v>1113</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
@@ -2392,13 +2406,13 @@
         <v>1114</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>98</v>
       </c>
@@ -2430,15 +2444,15 @@
         <v>1114</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B38" s="2">
         <v>800003</v>
@@ -2456,10 +2470,10 @@
         <v>5007512</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>39</v>
@@ -2468,13 +2482,13 @@
         <v>1114</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>49</v>
       </c>
@@ -2506,13 +2520,13 @@
         <v>1115</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>99</v>
       </c>
@@ -2544,15 +2558,15 @@
         <v>1115</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B41" s="2">
         <v>900003</v>
@@ -2570,10 +2584,10 @@
         <v>5007514</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>48</v>
@@ -2582,10 +2596,10 @@
         <v>1115</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2596,13 +2610,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2611,13 +2625,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/game_excel/mainactive.xlsx
+++ b/game_excel/mainactive.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="177">
   <si>
     <t>int</t>
   </si>
@@ -693,12 +693,36 @@
     <t>Map_battle_2004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>充值活动1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值活动2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001,4002,4003,4004,4005,4006,4007,4008,4009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_battle_2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>welfare/icon_ljczhd_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-12 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,7 +850,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -900,7 +924,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -935,7 +958,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1111,15 +1133,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
@@ -1129,13 +1151,13 @@
     <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.25" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1173,7 +1195,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1230,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1243,7 +1265,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="22.5">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +1300,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="170.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="170.25" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1295,7 +1317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -1330,7 +1352,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -1365,7 +1387,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -1400,7 +1422,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1435,7 +1457,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -1470,7 +1492,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -1505,7 +1527,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -1540,7 +1562,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="5" t="s">
         <v>89</v>
       </c>
@@ -1575,7 +1597,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
         <v>90</v>
       </c>
@@ -1610,7 +1632,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1645,7 +1667,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1680,7 +1702,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1715,7 +1737,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
@@ -1750,7 +1772,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="5" t="s">
         <v>122</v>
       </c>
@@ -1785,7 +1807,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="5" t="s">
         <v>123</v>
       </c>
@@ -1820,7 +1842,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>124</v>
       </c>
@@ -1855,7 +1877,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
         <v>125</v>
       </c>
@@ -1890,7 +1912,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="5" t="s">
         <v>126</v>
       </c>
@@ -1925,7 +1947,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>127</v>
       </c>
@@ -1960,7 +1982,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -1996,7 +2018,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -2032,88 +2054,88 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="2">
+        <v>400001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>303</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5007515</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5007516</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1110</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="2">
+        <v>400002</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>303</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5007515</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5007516</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" s="11">
+        <v>1110</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B29" s="2">
         <v>500001</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>304</v>
-      </c>
-      <c r="E27" s="1">
-        <v>5007507</v>
-      </c>
-      <c r="F27" s="1">
-        <v>5007508</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="11">
-        <v>1111</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="2">
-        <v>500002</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>304</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5007507</v>
-      </c>
-      <c r="F28" s="1">
-        <v>5007508</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" s="11">
-        <v>1111</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="2">
-        <v>500003</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -2128,13 +2150,13 @@
         <v>5007508</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>153</v>
+        <v>70</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="J29" s="11">
         <v>1111</v>
@@ -2146,88 +2168,88 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="A30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="2">
+        <v>500002</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>304</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5007507</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5007508</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1111</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="2">
+        <v>500003</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>304</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5007507</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5007508</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1111</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B32" s="2">
         <v>600001</v>
-      </c>
-      <c r="C30" s="2">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2">
-        <v>305</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5007517</v>
-      </c>
-      <c r="F30" s="1">
-        <v>5007518</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J30" s="11">
-        <v>1112</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="2">
-        <v>600002</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2">
-        <v>305</v>
-      </c>
-      <c r="E31" s="1">
-        <v>5007517</v>
-      </c>
-      <c r="F31" s="1">
-        <v>5007518</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J31" s="11">
-        <v>1112</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="2">
-        <v>600003</v>
       </c>
       <c r="C32" s="2">
         <v>6</v>
@@ -2242,10 +2264,10 @@
         <v>5007518</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>112</v>
@@ -2260,88 +2282,88 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12">
       <c r="A33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="2">
+        <v>600002</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>305</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5007517</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5007518</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="11">
+        <v>1112</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="2">
+        <v>600003</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
+        <v>305</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5007517</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5007518</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" s="11">
+        <v>1112</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B35" s="2">
         <v>700001</v>
-      </c>
-      <c r="C33" s="2">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2">
-        <v>306</v>
-      </c>
-      <c r="E33" s="1">
-        <v>5007509</v>
-      </c>
-      <c r="F33" s="1">
-        <v>5007510</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" s="11">
-        <v>1113</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="2">
-        <v>700002</v>
-      </c>
-      <c r="C34" s="2">
-        <v>7</v>
-      </c>
-      <c r="D34" s="2">
-        <v>306</v>
-      </c>
-      <c r="E34" s="1">
-        <v>5007509</v>
-      </c>
-      <c r="F34" s="1">
-        <v>5007510</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J34" s="11">
-        <v>1113</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="2">
-        <v>700003</v>
       </c>
       <c r="C35" s="2">
         <v>7</v>
@@ -2356,10 +2378,10 @@
         <v>5007510</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>72</v>
@@ -2374,88 +2396,88 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12">
       <c r="A36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="2">
+        <v>700002</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2">
+        <v>306</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5007509</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5007510</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" s="11">
+        <v>1113</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="2">
+        <v>700003</v>
+      </c>
+      <c r="C37" s="2">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2">
+        <v>306</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5007509</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5007510</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="11">
+        <v>1113</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B38" s="2">
         <v>800001</v>
-      </c>
-      <c r="C36" s="2">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2">
-        <v>307</v>
-      </c>
-      <c r="E36" s="1">
-        <v>5007511</v>
-      </c>
-      <c r="F36" s="1">
-        <v>5007512</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" s="11">
-        <v>1114</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="2">
-        <v>800002</v>
-      </c>
-      <c r="C37" s="2">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2">
-        <v>307</v>
-      </c>
-      <c r="E37" s="1">
-        <v>5007511</v>
-      </c>
-      <c r="F37" s="1">
-        <v>5007512</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" s="11">
-        <v>1114</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="2">
-        <v>800003</v>
       </c>
       <c r="C38" s="2">
         <v>8</v>
@@ -2470,10 +2492,10 @@
         <v>5007512</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>39</v>
@@ -2488,88 +2510,88 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12">
       <c r="A39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="2">
+        <v>800002</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2">
+        <v>307</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5007511</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5007512</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="11">
+        <v>1114</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="2">
+        <v>800003</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>307</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5007511</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5007512</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="11">
+        <v>1114</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B41" s="2">
         <v>900001</v>
-      </c>
-      <c r="C39" s="2">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2">
-        <v>308</v>
-      </c>
-      <c r="E39" s="1">
-        <v>5007513</v>
-      </c>
-      <c r="F39" s="1">
-        <v>5007514</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39" s="11">
-        <v>1115</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="2">
-        <v>900002</v>
-      </c>
-      <c r="C40" s="2">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2">
-        <v>308</v>
-      </c>
-      <c r="E40" s="1">
-        <v>5007513</v>
-      </c>
-      <c r="F40" s="1">
-        <v>5007514</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40" s="11">
-        <v>1115</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="2">
-        <v>900003</v>
       </c>
       <c r="C41" s="2">
         <v>9</v>
@@ -2584,10 +2606,10 @@
         <v>5007514</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>48</v>
@@ -2599,6 +2621,82 @@
         <v>161</v>
       </c>
       <c r="L41" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="2">
+        <v>900002</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2">
+        <v>308</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5007513</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5007514</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="11">
+        <v>1115</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="2">
+        <v>900003</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2">
+        <v>308</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5007513</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5007514</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="11">
+        <v>1115</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L43" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2610,13 +2708,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2625,13 +2723,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/game_excel/mainactive.xlsx
+++ b/game_excel/mainactive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="234">
   <si>
     <t>int</t>
   </si>
@@ -715,6 +715,220 @@
   </si>
   <si>
     <t>2019-04-12 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-01 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-01 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周特惠17（新奖励）</t>
+  </si>
+  <si>
+    <t>周特惠18（新奖励）</t>
+  </si>
+  <si>
+    <t>周特惠19（新奖励）</t>
+  </si>
+  <si>
+    <t>周特惠20（新奖励）</t>
+  </si>
+  <si>
+    <t>2019-04-05 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-19 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-12 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-19 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-26 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-26 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-03 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡任务4</t>
+  </si>
+  <si>
+    <t>2019-04-14 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-03-31 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场任务4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-21 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-07 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗钻石4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-28 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-14 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索任务4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-21 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-05 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得英雄4(新模式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值活动3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-26 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周特惠21（新奖励）</t>
+  </si>
+  <si>
+    <t>周特惠22（新奖励）</t>
+  </si>
+  <si>
+    <t>周特惠23（新奖励）</t>
+  </si>
+  <si>
+    <t>周特惠24（新奖励）</t>
+  </si>
+  <si>
+    <t>2019-05-03 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-10 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-17 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-10 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-24 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-31 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-17 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-24 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-06-01 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-01 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值活动4</t>
+  </si>
+  <si>
+    <t>充值活动5</t>
+  </si>
+  <si>
+    <t>2019-04-28 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-26 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-12 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗钻石5</t>
+  </si>
+  <si>
+    <t>获得英雄5(新模式)</t>
+  </si>
+  <si>
+    <t>探索任务5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-06-02 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-19 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡任务5</t>
+  </si>
+  <si>
+    <t>2019-05-12 13:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场任务5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-05 17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-19 13:00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,10 +1349,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1424,80 +1638,80 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2">
-        <v>200001</v>
+        <v>100004</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
         <v>301</v>
       </c>
       <c r="E9" s="1">
-        <v>5007501</v>
+        <v>5007504</v>
       </c>
       <c r="F9" s="1">
         <v>5007502</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2">
-        <v>200002</v>
+        <v>100005</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <v>301</v>
       </c>
       <c r="E10" s="1">
-        <v>5007501</v>
+        <v>5007504</v>
       </c>
       <c r="F10" s="1">
         <v>5007502</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2">
-        <v>200003</v>
+        <v>200001</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1512,10 +1726,10 @@
         <v>5007502</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>35</v>
@@ -1529,10 +1743,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>200004</v>
+        <v>200002</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1547,10 +1761,10 @@
         <v>5007502</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>35</v>
@@ -1562,12 +1776,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="12.75" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2">
-        <v>200005</v>
+        <v>200003</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -1582,13 +1796,13 @@
         <v>5007502</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>155</v>
@@ -1599,10 +1813,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
-        <v>200006</v>
+        <v>200004</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1617,13 +1831,13 @@
         <v>5007502</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>155</v>
@@ -1634,10 +1848,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2">
-        <v>200007</v>
+        <v>200005</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -1652,10 +1866,10 @@
         <v>5007502</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>76</v>
@@ -1669,10 +1883,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" s="2">
-        <v>200008</v>
+        <v>200006</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
@@ -1687,10 +1901,10 @@
         <v>5007502</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>76</v>
@@ -1704,10 +1918,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="2">
-        <v>200009</v>
+        <v>200007</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -1722,10 +1936,10 @@
         <v>5007502</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>76</v>
@@ -1739,10 +1953,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2">
-        <v>200010</v>
+        <v>200008</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -1757,10 +1971,10 @@
         <v>5007502</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>76</v>
@@ -1774,10 +1988,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="5" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2">
-        <v>200011</v>
+        <v>200009</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -1792,10 +2006,10 @@
         <v>5007502</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>76</v>
@@ -1809,10 +2023,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="5" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2">
-        <v>200012</v>
+        <v>200010</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -1827,10 +2041,10 @@
         <v>5007502</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>76</v>
@@ -1844,10 +2058,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2">
-        <v>200013</v>
+        <v>200011</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -1862,10 +2076,10 @@
         <v>5007502</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>76</v>
@@ -1879,10 +2093,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2">
-        <v>200014</v>
+        <v>200012</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -1897,10 +2111,10 @@
         <v>5007502</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>76</v>
@@ -1914,10 +2128,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2">
-        <v>200015</v>
+        <v>200013</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -1932,10 +2146,10 @@
         <v>5007502</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>76</v>
@@ -1949,10 +2163,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="2">
-        <v>200016</v>
+        <v>200014</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
@@ -1967,10 +2181,10 @@
         <v>5007502</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>76</v>
@@ -1984,719 +2198,1563 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="5" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2">
-        <v>300001</v>
+        <v>200015</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2">
         <v>301</v>
       </c>
       <c r="E25" s="1">
-        <v>5007506</v>
+        <v>5007501</v>
       </c>
       <c r="F25" s="1">
         <v>5007502</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="11"/>
+        <v>76</v>
+      </c>
       <c r="K25" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="5" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="B26" s="2">
-        <v>300002</v>
+        <v>200016</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="2">
         <v>301</v>
       </c>
       <c r="E26" s="1">
-        <v>5007525</v>
+        <v>5007501</v>
       </c>
       <c r="F26" s="1">
         <v>5007502</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="11"/>
+        <v>76</v>
+      </c>
       <c r="K26" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="5" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2">
-        <v>400001</v>
+        <v>200017</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E27" s="1">
-        <v>5007515</v>
+        <v>5007501</v>
       </c>
       <c r="F27" s="1">
-        <v>5007516</v>
+        <v>5007502</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J27" s="11">
-        <v>1110</v>
+        <v>176</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B28" s="2">
-        <v>400002</v>
+        <v>200018</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E28" s="1">
-        <v>5007515</v>
+        <v>5007501</v>
       </c>
       <c r="F28" s="1">
-        <v>5007516</v>
+        <v>5007502</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J28" s="11">
-        <v>1110</v>
+        <v>184</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B29" s="2">
-        <v>500001</v>
+        <v>200019</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E29" s="1">
-        <v>5007507</v>
+        <v>5007501</v>
       </c>
       <c r="F29" s="1">
-        <v>5007508</v>
+        <v>5007502</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="11">
-        <v>1111</v>
+        <v>76</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="5" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="B30" s="2">
-        <v>500002</v>
+        <v>200020</v>
       </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E30" s="1">
-        <v>5007507</v>
+        <v>5007501</v>
       </c>
       <c r="F30" s="1">
-        <v>5007508</v>
+        <v>5007502</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="11">
-        <v>1111</v>
+        <v>76</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="5" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="B31" s="2">
-        <v>500003</v>
+        <v>200021</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E31" s="1">
-        <v>5007507</v>
+        <v>5007501</v>
       </c>
       <c r="F31" s="1">
-        <v>5007508</v>
+        <v>5007502</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J31" s="11">
-        <v>1111</v>
+        <v>210</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="5" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="B32" s="2">
-        <v>600001</v>
+        <v>200022</v>
       </c>
       <c r="C32" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E32" s="1">
-        <v>5007517</v>
+        <v>5007501</v>
       </c>
       <c r="F32" s="1">
-        <v>5007518</v>
+        <v>5007502</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J32" s="11">
-        <v>1112</v>
+        <v>76</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="5" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="B33" s="2">
-        <v>600002</v>
+        <v>200023</v>
       </c>
       <c r="C33" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E33" s="1">
-        <v>5007517</v>
+        <v>5007501</v>
       </c>
       <c r="F33" s="1">
-        <v>5007518</v>
+        <v>5007502</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J33" s="11">
-        <v>1112</v>
+        <v>76</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="5" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="B34" s="2">
-        <v>600003</v>
+        <v>200024</v>
       </c>
       <c r="C34" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E34" s="1">
-        <v>5007517</v>
+        <v>5007501</v>
       </c>
       <c r="F34" s="1">
-        <v>5007518</v>
+        <v>5007502</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J34" s="11">
-        <v>1112</v>
+        <v>76</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="5" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>700001</v>
+        <v>300001</v>
       </c>
       <c r="C35" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D35" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E35" s="1">
-        <v>5007509</v>
+        <v>5007506</v>
       </c>
       <c r="F35" s="1">
-        <v>5007510</v>
+        <v>5007502</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J35" s="11">
-        <v>1113</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J35" s="11"/>
       <c r="K35" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="5" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2">
-        <v>700002</v>
+        <v>300002</v>
       </c>
       <c r="C36" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E36" s="1">
-        <v>5007509</v>
+        <v>5007525</v>
       </c>
       <c r="F36" s="1">
-        <v>5007510</v>
+        <v>5007502</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J36" s="11">
-        <v>1113</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J36" s="11"/>
       <c r="K36" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="5" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="B37" s="2">
-        <v>700003</v>
+        <v>400001</v>
       </c>
       <c r="C37" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E37" s="1">
-        <v>5007509</v>
+        <v>5007515</v>
       </c>
       <c r="F37" s="1">
-        <v>5007510</v>
+        <v>5007516</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>72</v>
+        <v>135</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="J37" s="11">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="5" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="B38" s="2">
-        <v>800001</v>
+        <v>400002</v>
       </c>
       <c r="C38" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D38" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E38" s="1">
-        <v>5007511</v>
+        <v>5007515</v>
       </c>
       <c r="F38" s="1">
-        <v>5007512</v>
+        <v>5007516</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>39</v>
+        <v>176</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="J38" s="11">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="B39" s="2">
-        <v>800002</v>
+        <v>400003</v>
       </c>
       <c r="C39" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D39" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E39" s="1">
-        <v>5007511</v>
+        <v>5007515</v>
       </c>
       <c r="F39" s="1">
-        <v>5007512</v>
+        <v>5007516</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>39</v>
+        <v>204</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="J39" s="11">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="5" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="B40" s="2">
-        <v>800003</v>
+        <v>400004</v>
       </c>
       <c r="C40" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D40" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E40" s="1">
-        <v>5007511</v>
+        <v>5007515</v>
       </c>
       <c r="F40" s="1">
-        <v>5007512</v>
+        <v>5007516</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>39</v>
+        <v>210</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="J40" s="11">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="5" t="s">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="B41" s="2">
-        <v>900001</v>
+        <v>400005</v>
       </c>
       <c r="C41" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D41" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E41" s="1">
-        <v>5007513</v>
+        <v>5007515</v>
       </c>
       <c r="F41" s="1">
-        <v>5007514</v>
+        <v>5007516</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>48</v>
+        <v>213</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="J41" s="11">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="5" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
-        <v>900002</v>
+        <v>500001</v>
       </c>
       <c r="C42" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E42" s="1">
-        <v>5007513</v>
+        <v>5007507</v>
       </c>
       <c r="F42" s="1">
-        <v>5007514</v>
+        <v>5007508</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42" s="11">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="2">
+        <v>500002</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2">
+        <v>304</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5007507</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5007508</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J43" s="11">
+        <v>1111</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="2">
+        <v>500003</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>304</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5007507</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5007508</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" s="11">
+        <v>1111</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="2">
+        <v>500004</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>304</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5007507</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5007508</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J45" s="11">
+        <v>1111</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="2">
+        <v>500005</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>304</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5007507</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5007508</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J46" s="11">
+        <v>1111</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="2">
+        <v>600001</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2">
+        <v>305</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5007517</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5007518</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J47" s="11">
+        <v>1112</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="2">
+        <v>600002</v>
+      </c>
+      <c r="C48" s="2">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2">
+        <v>305</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5007517</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5007518</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J48" s="11">
+        <v>1112</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="2">
+        <v>600003</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2">
+        <v>305</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5007517</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5007518</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J49" s="11">
+        <v>1112</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" s="2">
+        <v>600004</v>
+      </c>
+      <c r="C50" s="2">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2">
+        <v>305</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5007517</v>
+      </c>
+      <c r="F50" s="1">
+        <v>5007518</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" s="11">
+        <v>1112</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="2">
+        <v>600005</v>
+      </c>
+      <c r="C51" s="2">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2">
+        <v>305</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5007517</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5007518</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J51" s="11">
+        <v>1112</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="2">
+        <v>700001</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2">
+        <v>306</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5007509</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5007510</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J52" s="11">
+        <v>1113</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2">
+        <v>700002</v>
+      </c>
+      <c r="C53" s="2">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2">
+        <v>306</v>
+      </c>
+      <c r="E53" s="1">
+        <v>5007509</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5007510</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="11">
+        <v>1113</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="2">
+        <v>700003</v>
+      </c>
+      <c r="C54" s="2">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2">
+        <v>306</v>
+      </c>
+      <c r="E54" s="1">
+        <v>5007509</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5007510</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J54" s="11">
+        <v>1113</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="2">
+        <v>700004</v>
+      </c>
+      <c r="C55" s="2">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2">
+        <v>306</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5007509</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5007510</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J55" s="11">
+        <v>1113</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="2">
+        <v>700005</v>
+      </c>
+      <c r="C56" s="2">
+        <v>7</v>
+      </c>
+      <c r="D56" s="2">
+        <v>306</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5007509</v>
+      </c>
+      <c r="F56" s="1">
+        <v>5007510</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56" s="11">
+        <v>1113</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="2">
+        <v>800001</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2">
+        <v>307</v>
+      </c>
+      <c r="E57" s="1">
+        <v>5007511</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5007512</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" s="11">
+        <v>1114</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="2">
+        <v>800002</v>
+      </c>
+      <c r="C58" s="2">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2">
+        <v>307</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5007511</v>
+      </c>
+      <c r="F58" s="1">
+        <v>5007512</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="11">
+        <v>1114</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="2">
+        <v>800003</v>
+      </c>
+      <c r="C59" s="2">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2">
+        <v>307</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5007511</v>
+      </c>
+      <c r="F59" s="1">
+        <v>5007512</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="11">
+        <v>1114</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" s="2">
+        <v>800004</v>
+      </c>
+      <c r="C60" s="2">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2">
+        <v>307</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5007511</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5007512</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="11">
+        <v>1114</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="2">
+        <v>800005</v>
+      </c>
+      <c r="C61" s="2">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2">
+        <v>307</v>
+      </c>
+      <c r="E61" s="1">
+        <v>5007511</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5007512</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="11">
+        <v>1114</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="2">
+        <v>900001</v>
+      </c>
+      <c r="C62" s="2">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2">
+        <v>308</v>
+      </c>
+      <c r="E62" s="1">
+        <v>5007513</v>
+      </c>
+      <c r="F62" s="1">
+        <v>5007514</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="11">
+        <v>1115</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="2">
+        <v>900002</v>
+      </c>
+      <c r="C63" s="2">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2">
+        <v>308</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5007513</v>
+      </c>
+      <c r="F63" s="1">
+        <v>5007514</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" s="11">
+        <v>1115</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B64" s="2">
         <v>900003</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C64" s="2">
         <v>9</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D64" s="2">
         <v>308</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E64" s="1">
         <v>5007513</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F64" s="1">
         <v>5007514</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H64" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I64" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J64" s="11">
         <v>1115</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K64" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="L64" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="2">
+        <v>900004</v>
+      </c>
+      <c r="C65" s="2">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2">
+        <v>308</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5007513</v>
+      </c>
+      <c r="F65" s="1">
+        <v>5007514</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" s="11">
+        <v>1115</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" s="2">
+        <v>900005</v>
+      </c>
+      <c r="C66" s="2">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2">
+        <v>308</v>
+      </c>
+      <c r="E66" s="1">
+        <v>5007513</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5007514</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J66" s="11">
+        <v>1115</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L66" s="12" t="s">
         <v>170</v>
       </c>
     </row>
